--- a/恋活卡片记录.xlsx
+++ b/恋活卡片记录.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\OtherProject\something_about_daily_log\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06106572-0AEE-4909-88E6-8CD660AED109}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8157A0EC-2C7C-4A5B-A647-490A5195A0AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="崩三" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="798" uniqueCount="326">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="803" uniqueCount="328">
   <si>
     <t>角色</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1342,6 +1342,44 @@
   </si>
   <si>
     <t>桃祈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>嘉贝莉娜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>嗨</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Symbol"/>
+        <family val="2"/>
+      </rPr>
+      <t>♪</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>爱愿妖精</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Symbol"/>
+        <family val="2"/>
+      </rPr>
+      <t>♥</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1709,10 +1747,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L117"/>
+  <dimension ref="A1:L118"/>
   <sheetViews>
-    <sheetView topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="A109" sqref="A109"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2059,26 +2097,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A25" s="2" t="s">
+    <row r="25" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A25" s="6"/>
+      <c r="B25" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="D25" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B25" s="2" t="s">
+      <c r="B26" s="2" t="s">
         <v>45</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D25" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A26" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>47</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>5</v>
@@ -2088,9 +2124,11 @@
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A27" s="6"/>
+      <c r="A27" s="6" t="s">
+        <v>46</v>
+      </c>
       <c r="B27" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>5</v>
@@ -2100,11 +2138,9 @@
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A28" s="2" t="s">
-        <v>49</v>
-      </c>
+      <c r="A28" s="6"/>
       <c r="B28" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>5</v>
@@ -2115,10 +2151,10 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>5</v>
@@ -2129,10 +2165,10 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>5</v>
@@ -2143,10 +2179,10 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>5</v>
@@ -2156,11 +2192,11 @@
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A32" s="6" t="s">
-        <v>57</v>
+      <c r="A32" s="2" t="s">
+        <v>55</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>5</v>
@@ -2170,9 +2206,11 @@
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A33" s="6"/>
+      <c r="A33" s="6" t="s">
+        <v>57</v>
+      </c>
       <c r="B33" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>5</v>
@@ -2184,7 +2222,7 @@
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" s="6"/>
       <c r="B34" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>5</v>
@@ -2196,7 +2234,7 @@
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" s="6"/>
       <c r="B35" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>5</v>
@@ -2208,7 +2246,7 @@
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" s="6"/>
       <c r="B36" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>5</v>
@@ -2220,7 +2258,7 @@
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" s="6"/>
       <c r="B37" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>5</v>
@@ -2232,7 +2270,7 @@
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" s="6"/>
       <c r="B38" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>5</v>
@@ -2244,7 +2282,7 @@
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" s="6"/>
       <c r="B39" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>5</v>
@@ -2256,7 +2294,7 @@
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" s="6"/>
       <c r="B40" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>5</v>
@@ -2266,11 +2304,9 @@
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A41" s="7" t="s">
-        <v>67</v>
-      </c>
+      <c r="A41" s="6"/>
       <c r="B41" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>5</v>
@@ -2280,9 +2316,11 @@
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A42" s="7"/>
+      <c r="A42" s="7" t="s">
+        <v>67</v>
+      </c>
       <c r="B42" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>5</v>
@@ -2294,7 +2332,7 @@
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" s="7"/>
       <c r="B43" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>5</v>
@@ -2306,7 +2344,7 @@
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" s="7"/>
       <c r="B44" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>5</v>
@@ -2318,7 +2356,7 @@
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" s="7"/>
       <c r="B45" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>5</v>
@@ -2330,7 +2368,7 @@
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" s="7"/>
       <c r="B46" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>5</v>
@@ -2342,7 +2380,7 @@
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47" s="7"/>
       <c r="B47" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>5</v>
@@ -2354,7 +2392,7 @@
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48" s="7"/>
       <c r="B48" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>5</v>
@@ -2364,11 +2402,9 @@
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A49" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="B49" s="5" t="s">
-        <v>77</v>
+      <c r="A49" s="7"/>
+      <c r="B49" s="2" t="s">
+        <v>75</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>5</v>
@@ -2378,9 +2414,11 @@
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A50" s="6"/>
-      <c r="B50" s="2" t="s">
-        <v>78</v>
+      <c r="A50" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="B50" s="5" t="s">
+        <v>77</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>5</v>
@@ -2392,7 +2430,7 @@
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51" s="6"/>
       <c r="B51" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>5</v>
@@ -2404,7 +2442,7 @@
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52" s="6"/>
       <c r="B52" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>5</v>
@@ -2416,7 +2454,7 @@
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53" s="6"/>
       <c r="B53" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>5</v>
@@ -2428,7 +2466,7 @@
     <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A54" s="6"/>
       <c r="B54" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>5</v>
@@ -2440,7 +2478,7 @@
     <row r="55" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A55" s="6"/>
       <c r="B55" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>5</v>
@@ -2452,7 +2490,7 @@
     <row r="56" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A56" s="6"/>
       <c r="B56" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>5</v>
@@ -2464,7 +2502,7 @@
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A57" s="6"/>
       <c r="B57" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>5</v>
@@ -2476,7 +2514,7 @@
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A58" s="6"/>
       <c r="B58" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>5</v>
@@ -2488,7 +2526,7 @@
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A59" s="6"/>
       <c r="B59" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>5</v>
@@ -2498,11 +2536,9 @@
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A60" s="6" t="s">
-        <v>88</v>
-      </c>
+      <c r="A60" s="6"/>
       <c r="B60" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>5</v>
@@ -2512,9 +2548,11 @@
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A61" s="6"/>
+      <c r="A61" s="6" t="s">
+        <v>88</v>
+      </c>
       <c r="B61" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>5</v>
@@ -2526,7 +2564,7 @@
     <row r="62" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A62" s="6"/>
       <c r="B62" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>5</v>
@@ -2538,7 +2576,7 @@
     <row r="63" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A63" s="6"/>
       <c r="B63" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>5</v>
@@ -2550,7 +2588,7 @@
     <row r="64" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A64" s="6"/>
       <c r="B64" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>5</v>
@@ -2562,7 +2600,7 @@
     <row r="65" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A65" s="6"/>
       <c r="B65" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>5</v>
@@ -2574,7 +2612,7 @@
     <row r="66" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A66" s="6"/>
       <c r="B66" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>5</v>
@@ -2586,7 +2624,7 @@
     <row r="67" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A67" s="6"/>
       <c r="B67" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>5</v>
@@ -2598,7 +2636,7 @@
     <row r="68" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A68" s="6"/>
       <c r="B68" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>5</v>
@@ -2610,7 +2648,7 @@
     <row r="69" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A69" s="6"/>
       <c r="B69" s="2" t="s">
-        <v>6</v>
+        <v>97</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>5</v>
@@ -2620,11 +2658,9 @@
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A70" s="6" t="s">
-        <v>98</v>
-      </c>
+      <c r="A70" s="6"/>
       <c r="B70" s="2" t="s">
-        <v>99</v>
+        <v>6</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>5</v>
@@ -2634,9 +2670,11 @@
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A71" s="6"/>
+      <c r="A71" s="6" t="s">
+        <v>98</v>
+      </c>
       <c r="B71" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>5</v>
@@ -2648,7 +2686,7 @@
     <row r="72" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A72" s="6"/>
       <c r="B72" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>5</v>
@@ -2660,7 +2698,7 @@
     <row r="73" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A73" s="6"/>
       <c r="B73" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>5</v>
@@ -2672,7 +2710,7 @@
     <row r="74" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A74" s="6"/>
       <c r="B74" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>5</v>
@@ -2684,7 +2722,7 @@
     <row r="75" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A75" s="6"/>
       <c r="B75" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>5</v>
@@ -2694,11 +2732,9 @@
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A76" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="B76" s="4" t="s">
-        <v>106</v>
+      <c r="A76" s="6"/>
+      <c r="B76" s="2" t="s">
+        <v>104</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>5</v>
@@ -2708,9 +2744,11 @@
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A77" s="6"/>
-      <c r="B77" s="2" t="s">
-        <v>107</v>
+      <c r="A77" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="B77" s="4" t="s">
+        <v>106</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>5</v>
@@ -2722,7 +2760,7 @@
     <row r="78" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A78" s="6"/>
       <c r="B78" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>5</v>
@@ -2734,7 +2772,7 @@
     <row r="79" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A79" s="6"/>
       <c r="B79" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>5</v>
@@ -2744,11 +2782,9 @@
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A80" s="6" t="s">
-        <v>110</v>
-      </c>
+      <c r="A80" s="6"/>
       <c r="B80" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>5</v>
@@ -2758,9 +2794,11 @@
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A81" s="6"/>
+      <c r="A81" s="6" t="s">
+        <v>110</v>
+      </c>
       <c r="B81" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>5</v>
@@ -2772,7 +2810,7 @@
     <row r="82" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A82" s="6"/>
       <c r="B82" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>5</v>
@@ -2782,11 +2820,9 @@
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A83" s="6" t="s">
-        <v>114</v>
-      </c>
+      <c r="A83" s="6"/>
       <c r="B83" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>5</v>
@@ -2796,9 +2832,11 @@
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A84" s="6"/>
+      <c r="A84" s="6" t="s">
+        <v>114</v>
+      </c>
       <c r="B84" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>5</v>
@@ -2810,7 +2848,7 @@
     <row r="85" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A85" s="6"/>
       <c r="B85" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>5</v>
@@ -2822,7 +2860,7 @@
     <row r="86" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A86" s="6"/>
       <c r="B86" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>5</v>
@@ -2834,7 +2872,7 @@
     <row r="87" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A87" s="6"/>
       <c r="B87" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>5</v>
@@ -2846,7 +2884,7 @@
     <row r="88" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A88" s="6"/>
       <c r="B88" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>5</v>
@@ -2858,7 +2896,7 @@
     <row r="89" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A89" s="6"/>
       <c r="B89" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>5</v>
@@ -2870,7 +2908,7 @@
     <row r="90" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A90" s="6"/>
       <c r="B90" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>5</v>
@@ -2880,11 +2918,9 @@
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A91" s="6" t="s">
-        <v>123</v>
-      </c>
+      <c r="A91" s="6"/>
       <c r="B91" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>5</v>
@@ -2894,9 +2930,11 @@
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A92" s="6"/>
+      <c r="A92" s="6" t="s">
+        <v>123</v>
+      </c>
       <c r="B92" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>5</v>
@@ -2908,7 +2946,7 @@
     <row r="93" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A93" s="6"/>
       <c r="B93" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>5</v>
@@ -2920,7 +2958,7 @@
     <row r="94" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A94" s="6"/>
       <c r="B94" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>5</v>
@@ -2932,7 +2970,7 @@
     <row r="95" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A95" s="6"/>
       <c r="B95" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>5</v>
@@ -2942,11 +2980,9 @@
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A96" s="6" t="s">
-        <v>129</v>
-      </c>
+      <c r="A96" s="6"/>
       <c r="B96" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>5</v>
@@ -2956,9 +2992,11 @@
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A97" s="6"/>
+      <c r="A97" s="6" t="s">
+        <v>129</v>
+      </c>
       <c r="B97" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>5</v>
@@ -2970,7 +3008,7 @@
     <row r="98" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A98" s="6"/>
       <c r="B98" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>5</v>
@@ -2982,7 +3020,7 @@
     <row r="99" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A99" s="6"/>
       <c r="B99" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>5</v>
@@ -2992,11 +3030,9 @@
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A100" s="2" t="s">
-        <v>134</v>
-      </c>
+      <c r="A100" s="6"/>
       <c r="B100" s="2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>5</v>
@@ -3006,11 +3042,11 @@
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A101" s="6" t="s">
-        <v>136</v>
+      <c r="A101" s="2" t="s">
+        <v>134</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>5</v>
@@ -3020,9 +3056,11 @@
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A102" s="6"/>
+      <c r="A102" s="6" t="s">
+        <v>136</v>
+      </c>
       <c r="B102" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>5</v>
@@ -3032,11 +3070,9 @@
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A103" s="6" t="s">
-        <v>139</v>
-      </c>
+      <c r="A103" s="6"/>
       <c r="B103" s="2" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>5</v>
@@ -3046,9 +3082,11 @@
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A104" s="6"/>
+      <c r="A104" s="6" t="s">
+        <v>139</v>
+      </c>
       <c r="B104" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>5</v>
@@ -3060,7 +3098,7 @@
     <row r="105" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A105" s="6"/>
       <c r="B105" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>5</v>
@@ -3072,7 +3110,7 @@
     <row r="106" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A106" s="6"/>
       <c r="B106" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>5</v>
@@ -3084,7 +3122,7 @@
     <row r="107" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A107" s="6"/>
       <c r="B107" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>5</v>
@@ -3094,11 +3132,9 @@
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A108" s="2" t="s">
-        <v>145</v>
-      </c>
+      <c r="A108" s="6"/>
       <c r="B108" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>5</v>
@@ -3109,10 +3145,10 @@
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A109" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>5</v>
@@ -3122,7 +3158,18 @@
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A110" s="2"/>
+      <c r="A110" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="B110" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="C110" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D110" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A111" s="2"/>
@@ -3145,30 +3192,33 @@
     <row r="117" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A117" s="2"/>
     </row>
+    <row r="118" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A118" s="2"/>
+    </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="A103:A107"/>
+    <mergeCell ref="A92:A96"/>
+    <mergeCell ref="A97:A100"/>
+    <mergeCell ref="A23:A25"/>
+    <mergeCell ref="A104:A108"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="A13:A14"/>
     <mergeCell ref="A21:A22"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="A101:A102"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="A32:A40"/>
-    <mergeCell ref="A41:A48"/>
-    <mergeCell ref="A49:A59"/>
-    <mergeCell ref="A60:A69"/>
-    <mergeCell ref="A70:A75"/>
-    <mergeCell ref="A76:A79"/>
-    <mergeCell ref="A80:A82"/>
-    <mergeCell ref="A83:A90"/>
-    <mergeCell ref="A91:A95"/>
-    <mergeCell ref="A96:A99"/>
+    <mergeCell ref="A102:A103"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="A33:A41"/>
+    <mergeCell ref="A42:A49"/>
+    <mergeCell ref="A50:A60"/>
+    <mergeCell ref="A61:A70"/>
+    <mergeCell ref="A71:A76"/>
+    <mergeCell ref="A77:A80"/>
+    <mergeCell ref="A81:A83"/>
+    <mergeCell ref="A84:A91"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C109" xr:uid="{54AE6B66-1508-4957-A200-325E1A71E25B}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C110" xr:uid="{54AE6B66-1508-4957-A200-325E1A71E25B}">
       <formula1>"是,否"</formula1>
     </dataValidation>
   </dataValidations>
@@ -3180,8 +3230,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CD815C2-6A09-4FCC-AFCA-B802AD6370AA}">
   <dimension ref="A1:D530"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:D1"/>
+    <sheetView topLeftCell="A39" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -6931,7 +6981,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46BBB900-E777-49BC-871E-F5959590B198}">
   <dimension ref="A1:D953"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A18" workbookViewId="0">
       <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
@@ -13069,7 +13119,7 @@
   <dimension ref="A1:D174"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -14410,8 +14460,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34A732DC-E45D-4BCA-B80B-5C1836839FF3}">
   <dimension ref="A1:D638"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -14814,10 +14864,18 @@
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A29" s="2"/>
-      <c r="B29" s="2"/>
-      <c r="C29" s="2"/>
-      <c r="D29" s="2"/>
+      <c r="A29" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D29" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" s="2"/>
